--- a/Product_Database.xlsx
+++ b/Product_Database.xlsx
@@ -1,92 +1,399 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="14355" windowHeight="5445" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="MEAT" sheetId="1" r:id="rId1"/>
-    <sheet name="FISH" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="Arkusz4" sheetId="4" r:id="rId4"/>
+    <sheet name="Arkusz5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="138">
+  <si>
+    <t>FRUITS</t>
+  </si>
+  <si>
+    <t>CALORIES</t>
+  </si>
+  <si>
+    <t>PROTEIN</t>
+  </si>
+  <si>
+    <t>CARBS</t>
+  </si>
+  <si>
+    <t>FAT</t>
+  </si>
+  <si>
+    <t>Arbuz</t>
+  </si>
+  <si>
+    <t>Banan</t>
+  </si>
+  <si>
+    <t>Brzoskwinia</t>
+  </si>
+  <si>
+    <t>Grejpfrut</t>
+  </si>
+  <si>
+    <t>Jabłko</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>Maliny</t>
+  </si>
+  <si>
+    <t>Melon</t>
+  </si>
+  <si>
+    <t>Morele</t>
+  </si>
+  <si>
+    <t>Nektarynka</t>
+  </si>
+  <si>
+    <t>Papaja</t>
+  </si>
+  <si>
+    <t>Porzeczki czarne</t>
+  </si>
+  <si>
+    <t>Rodzynki suszone</t>
+  </si>
+  <si>
+    <t>Śliwki</t>
+  </si>
+  <si>
+    <t>Wiśnie</t>
+  </si>
+  <si>
+    <t>Bagietka</t>
+  </si>
+  <si>
+    <t>Chleb pszenny</t>
+  </si>
+  <si>
+    <t>Chleb wiejski</t>
+  </si>
+  <si>
+    <t>Chleb zwykły</t>
+  </si>
+  <si>
+    <t>Chleb żytni razowy</t>
+  </si>
+  <si>
+    <t>Kasza gryczana</t>
+  </si>
+  <si>
+    <t>Kasza jęczmienna perłowa</t>
+  </si>
+  <si>
+    <t>Kasza kuskus - Kupiec</t>
+  </si>
+  <si>
+    <t>Makaron Lubella - świderki</t>
+  </si>
+  <si>
+    <t>Makaron spaghetti - Lubella</t>
+  </si>
+  <si>
+    <t>Mąka Pszenna 390</t>
+  </si>
+  <si>
+    <t>Obwarzanki</t>
+  </si>
+  <si>
+    <t>Pieczywo tostowe</t>
+  </si>
+  <si>
+    <t>Makaron spaghetti Vitalia - Biedronka</t>
+  </si>
+  <si>
+    <t>Płatki owsiane</t>
+  </si>
+  <si>
+    <t>Ryż biały</t>
+  </si>
+  <si>
+    <t>Ryż brązowy</t>
+  </si>
+  <si>
+    <t>Wafle ryżowe Kupiec</t>
+  </si>
+  <si>
+    <t>Brokuły</t>
+  </si>
+  <si>
+    <t>Burak</t>
+  </si>
+  <si>
+    <t>Cukinia</t>
+  </si>
+  <si>
+    <t>Dynia</t>
+  </si>
+  <si>
+    <t>Cytryna</t>
+  </si>
+  <si>
+    <t>Fasola czerwona (kidney) sucha</t>
+  </si>
+  <si>
+    <t>Groszek zielony</t>
+  </si>
+  <si>
+    <t>Kalafior</t>
+  </si>
+  <si>
+    <t>Kukurydza konserwowa</t>
+  </si>
+  <si>
+    <t>Marchew</t>
+  </si>
+  <si>
+    <t>Mieszanka warzywa na patelnię HORTEX</t>
+  </si>
+  <si>
+    <t>Młode ziemniaki</t>
+  </si>
+  <si>
+    <t>Ogórek</t>
+  </si>
+  <si>
+    <t>Papryka czerwona</t>
+  </si>
+  <si>
+    <t>Pomidor</t>
+  </si>
+  <si>
+    <t>VEGETABLES</t>
+  </si>
+  <si>
+    <t>Calories</t>
+  </si>
+  <si>
+    <t>PROTEINS</t>
+  </si>
+  <si>
+    <t>Białko jaja kurzego</t>
+  </si>
+  <si>
+    <t>Biały ser chudy</t>
+  </si>
+  <si>
+    <t>Danio waniliowe - Danone</t>
+  </si>
+  <si>
+    <t>Jaja kurze (100g)</t>
+  </si>
+  <si>
+    <t>Jajko na miękko</t>
+  </si>
+  <si>
+    <t>Jogurt naturalny - Bakoma</t>
+  </si>
+  <si>
+    <t>Kefir - Danone</t>
+  </si>
+  <si>
+    <t>Masło Extra - Mlekovita</t>
+  </si>
+  <si>
+    <t>Maślanka naturalna - Milko</t>
+  </si>
+  <si>
+    <t>Mleko 2%</t>
+  </si>
+  <si>
+    <t>Mleko 3,5 %</t>
+  </si>
+  <si>
+    <t>Oscypek</t>
+  </si>
+  <si>
+    <t>Ser Gouda tłusty</t>
+  </si>
+  <si>
+    <t>Ser mozarella</t>
+  </si>
+  <si>
+    <t>Ser twarogowy chudy</t>
+  </si>
+  <si>
+    <t>Serek wiejski</t>
+  </si>
+  <si>
+    <t>Śmietana 18% do zupy - Piątnica</t>
+  </si>
+  <si>
+    <t>Twaróg chudy Bieluch - Biomlek</t>
+  </si>
+  <si>
+    <t>GRAIN PRODUCTS</t>
+  </si>
+  <si>
+    <t>Baton Lion</t>
+  </si>
+  <si>
+    <t>Baton Mars</t>
+  </si>
+  <si>
+    <t>Be Power Energy Drink</t>
+  </si>
+  <si>
+    <t>Budyń śmietankowy - Dr. Oetker</t>
+  </si>
+  <si>
+    <t>Ciastka Jeżyki</t>
+  </si>
+  <si>
+    <t>coca-cola</t>
+  </si>
+  <si>
+    <t>Cukier</t>
+  </si>
+  <si>
+    <t>Czekolada gorzka</t>
+  </si>
+  <si>
+    <t>Drożdżówka z serem</t>
+  </si>
+  <si>
+    <t>Frugo napój</t>
+  </si>
+  <si>
+    <t>Herbata bez cukru</t>
+  </si>
+  <si>
+    <t>Kakao Nesquik</t>
+  </si>
+  <si>
+    <t>Kinder Bueno</t>
+  </si>
+  <si>
+    <t>Kit Kat Chunky</t>
+  </si>
+  <si>
+    <t>Michałki</t>
+  </si>
+  <si>
+    <t>Napój Tymbark Wiśnia-Jabłko</t>
+  </si>
+  <si>
+    <t>Piwo jasne</t>
+  </si>
+  <si>
+    <t>Rafaello</t>
+  </si>
+  <si>
+    <t>Sok jabłkowy</t>
+  </si>
+  <si>
+    <t>Sok Kubuś marchew malina jabłko</t>
+  </si>
+  <si>
+    <t>DRINKS&amp;SWEETIES</t>
+  </si>
+  <si>
+    <t>MILK&amp;EGGS</t>
+  </si>
+  <si>
+    <t>MEAT</t>
+  </si>
+  <si>
+    <t>Wołowina pręga</t>
+  </si>
+  <si>
+    <t>Szynka z indyka</t>
+  </si>
+  <si>
+    <t>Skrzydło kurczaka</t>
+  </si>
+  <si>
+    <t>Salami Luksusowe</t>
+  </si>
+  <si>
+    <t>Parówki Berlinki</t>
+  </si>
+  <si>
+    <t>Mięso mielone wołowe</t>
+  </si>
+  <si>
+    <t>Kurczak Pierś</t>
+  </si>
+  <si>
+    <t>Kiełbasa zwyczajna</t>
+  </si>
+  <si>
+    <t>Kaszanka</t>
+  </si>
+  <si>
+    <t>Karkówka z grila</t>
+  </si>
+  <si>
+    <t>Kabanosy</t>
+  </si>
+  <si>
+    <t>Cielęcina łopatka</t>
+  </si>
+  <si>
+    <t>Boczek wędzony</t>
+  </si>
+  <si>
+    <t>Boczek pieczony</t>
+  </si>
+  <si>
+    <t>Baranina udziec</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>carbs</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>calories</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>calories</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>carbs</t>
-  </si>
-  <si>
-    <t>fat</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>Boczek pieczony</t>
-  </si>
-  <si>
-    <t>Boczek wędzony</t>
-  </si>
-  <si>
-    <t>MEAT</t>
-  </si>
-  <si>
-    <t>Kabanosy</t>
-  </si>
-  <si>
-    <t>Kaszanka</t>
-  </si>
-  <si>
-    <t>Kiełbasa zwyczajna</t>
-  </si>
-  <si>
-    <t>Kurczak Pierś</t>
-  </si>
-  <si>
-    <t>Mięso mielone wołowe</t>
-  </si>
-  <si>
-    <t>Wołowina pręga</t>
-  </si>
-  <si>
-    <t>Cielęcina łopatka</t>
-  </si>
-  <si>
-    <t>Karkówka z grila</t>
-  </si>
-  <si>
-    <t>Parówki Berlinki</t>
-  </si>
-  <si>
-    <t>Salami Luksusowe</t>
-  </si>
-  <si>
-    <t>Skrzydło kurczaka</t>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Dorsz świeży</t>
   </si>
   <si>
     <t>FISH</t>
   </si>
   <si>
-    <t>Dorsz świeży</t>
-  </si>
-  <si>
     <t>Filet z mintaja</t>
   </si>
   <si>
@@ -127,19 +434,13 @@
   </si>
   <si>
     <t>Węgorz wędzony</t>
-  </si>
-  <si>
-    <t>Baranina udziec</t>
-  </si>
-  <si>
-    <t>Szynka z indyka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,16 +449,46 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -165,18 +496,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -465,351 +856,2400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <sheetPr codeName="Arkusz1"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>36.1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>94.3</v>
+      </c>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E3" s="4">
+        <v>21.9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>46.2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="4">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>55.7</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
+        <v>29.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4">
+        <v>46.6</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4">
+        <v>48.2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4">
+        <v>27.3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4">
+        <v>35.4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E14" s="4">
+        <v>64.8</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4">
+        <v>47.2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Arkusz2"/>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="3"/>
+    <col min="6" max="7" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8">
+        <v>250.3</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8">
+        <v>53</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8">
+        <v>246.2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="E3" s="8">
+        <v>51.6</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="8">
+        <v>237.7</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="E4" s="8">
+        <v>50.7</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8">
+        <v>242.1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="E5" s="8">
+        <v>52.2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8">
+        <v>220.5</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="E6" s="8">
+        <v>45.7</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8">
+        <v>332.3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="E7" s="8">
+        <v>63.5</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8">
+        <v>323</v>
+      </c>
+      <c r="D8" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="E8" s="8">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8">
+        <v>387</v>
+      </c>
+      <c r="D9" s="8">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8">
+        <v>75</v>
+      </c>
+      <c r="F9" s="8">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="8">
+        <v>328</v>
+      </c>
+      <c r="D10" s="8">
+        <v>13</v>
+      </c>
+      <c r="E10" s="8">
+        <v>69</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8">
+        <v>346.2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>13.2</v>
+      </c>
+      <c r="E11" s="8">
+        <v>70.2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="8">
+        <v>319</v>
+      </c>
+      <c r="D12" s="8">
+        <v>11.7</v>
+      </c>
+      <c r="E12" s="8">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8">
+        <v>348.2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E13" s="8">
+        <v>75.5</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="8">
+        <v>247</v>
+      </c>
+      <c r="D14" s="8">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E14" s="8">
+        <v>50</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="8">
+        <v>301.89999999999998</v>
+      </c>
+      <c r="D15" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>56.8</v>
+      </c>
+      <c r="F15" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="8">
+        <v>362.4</v>
+      </c>
+      <c r="D16" s="8">
+        <v>11.9</v>
+      </c>
+      <c r="E16" s="8">
+        <v>62.5</v>
+      </c>
+      <c r="F16" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="8">
+        <v>339.5</v>
+      </c>
+      <c r="D17" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="E17" s="8">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="8">
+        <v>318.3</v>
+      </c>
+      <c r="D18" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>68.2</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="8">
+        <v>348</v>
+      </c>
+      <c r="D19" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2">
-        <v>195.8</v>
-      </c>
-      <c r="D2">
-        <v>15.2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>531</v>
-      </c>
-      <c r="D3">
-        <v>36</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>475</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>80.5</v>
-      </c>
-      <c r="D5">
-        <v>15.4</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>2.1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>321.3</v>
-      </c>
-      <c r="D6">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>23.7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>271</v>
-      </c>
-      <c r="D7">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>269.5</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>14.5</v>
-      </c>
-      <c r="F8">
-        <v>19.5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>195.6</v>
-      </c>
-      <c r="D9">
-        <v>16.5</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>14.4</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>111</v>
-      </c>
-      <c r="D10">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>146.6</v>
-      </c>
-      <c r="D11">
-        <v>20.9</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>253</v>
-      </c>
-      <c r="D12">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>529.79999999999995</v>
-      </c>
-      <c r="D13">
-        <v>21.3</v>
-      </c>
-      <c r="E13">
-        <v>0.9</v>
-      </c>
-      <c r="F13">
-        <v>49</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>100.5</v>
-      </c>
-      <c r="D14">
-        <v>10.5</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>6.5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15">
-        <v>79</v>
-      </c>
-      <c r="D15">
-        <v>16.5</v>
-      </c>
-      <c r="E15">
-        <v>0.1</v>
-      </c>
-      <c r="F15">
-        <v>1.4</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>368.4</v>
-      </c>
-      <c r="D16">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E19" s="8">
+        <v>81</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Arkusz3"/>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" style="10" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="10"/>
+    <col min="6" max="7" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="11">
+        <v>16.2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="11">
+        <v>28.5</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="E3" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="11">
+        <v>12.9</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="11">
+        <v>17</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="11">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="11">
+        <v>7.6</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="11">
+        <v>345</v>
+      </c>
+      <c r="D7" s="11">
+        <v>23</v>
+      </c>
+      <c r="E7" s="11">
+        <v>61</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="11">
+        <v>44.6</v>
+      </c>
+      <c r="D8" s="11">
+        <v>4</v>
+      </c>
+      <c r="E8" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="11">
+        <v>13.7</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="11">
+        <v>101.6</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="E10" s="11">
+        <v>19.8</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="11">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E11" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" ht="30.75" thickBot="1">
+      <c r="B12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="11">
+        <v>57.7</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="E12" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="11">
+        <v>73.3</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="E13" s="11">
+        <v>16.3</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="11">
+        <v>24</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E15" s="11">
+        <v>4</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="11">
+        <v>15</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Arkusz4"/>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="11">
+        <v>47.7</v>
+      </c>
+      <c r="D2" s="11">
+        <v>11</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="11">
+        <v>113</v>
+      </c>
+      <c r="D3" s="11">
+        <v>23</v>
+      </c>
+      <c r="E3" s="11">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="11">
+        <v>111.4</v>
+      </c>
+      <c r="D4" s="11">
+        <v>5.3</v>
+      </c>
+      <c r="E4" s="11">
+        <v>15.8</v>
+      </c>
+      <c r="F4" s="11">
+        <v>3</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="11">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="D5" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="11">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="11">
+        <v>147.19999999999999</v>
+      </c>
+      <c r="D6" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>10.8</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="11">
+        <v>60.4</v>
+      </c>
+      <c r="D7" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="E7" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="11">
+        <v>42.3</v>
+      </c>
+      <c r="D8" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="E8" s="11">
+        <v>4</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="11">
+        <v>746</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>82</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="11">
+        <v>45.1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="E10" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="11">
+        <v>50.7</v>
+      </c>
+      <c r="D11" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="E11" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="11">
+        <v>63.4</v>
+      </c>
+      <c r="D12" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="E12" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="F12" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="11">
+        <v>592.4</v>
+      </c>
+      <c r="D13" s="11">
+        <v>12.2</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="11">
+        <v>60.3</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="11">
+        <v>288.7</v>
+      </c>
+      <c r="D14" s="11">
+        <v>25.5</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>20.7</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="11">
+        <v>224</v>
+      </c>
+      <c r="D15" s="11">
+        <v>20</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>16</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="11">
+        <v>97.2</v>
+      </c>
+      <c r="D16" s="11">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E16" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="11">
+        <v>110</v>
+      </c>
+      <c r="D17" s="11">
+        <v>9</v>
+      </c>
+      <c r="E17" s="11">
+        <v>5</v>
+      </c>
+      <c r="F17" s="11">
+        <v>6</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="11">
+        <v>188.8</v>
+      </c>
+      <c r="D18" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E18" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F18" s="11">
+        <v>18</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="11">
+        <v>88</v>
+      </c>
+      <c r="D19" s="11">
+        <v>18</v>
+      </c>
+      <c r="E19" s="11">
+        <v>4</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Arkusz5"/>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="9" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="9"/>
+    <col min="6" max="6" width="4.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="18">
+        <v>482.5</v>
+      </c>
+      <c r="D2" s="18">
+        <v>7.2</v>
+      </c>
+      <c r="E2" s="18">
+        <v>63.7</v>
+      </c>
+      <c r="F2" s="18">
+        <v>22.1</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="18">
+        <v>450.2</v>
+      </c>
+      <c r="D3" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="E3" s="18">
+        <v>68</v>
+      </c>
+      <c r="F3" s="18">
+        <v>18.2</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B4" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="18">
+        <v>44.6</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="18">
+        <v>10.8</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="18">
+        <v>87.5</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2.8</v>
+      </c>
+      <c r="E5" s="18">
+        <v>14.8</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1.9</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B6" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="18">
+        <v>480.6</v>
+      </c>
+      <c r="D6" s="18">
+        <v>6.6</v>
+      </c>
+      <c r="E6" s="18">
+        <v>58.2</v>
+      </c>
+      <c r="F6" s="18">
+        <v>24.6</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="18">
+        <v>42.4</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B8" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="18">
+        <v>399.6</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <v>99.9</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B9" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="18">
+        <v>555.5</v>
+      </c>
+      <c r="D9" s="18">
+        <v>6.7</v>
+      </c>
+      <c r="E9" s="18">
+        <v>55</v>
+      </c>
+      <c r="F9" s="18">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B10" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="18">
+        <v>291.89999999999998</v>
+      </c>
+      <c r="D10" s="18">
+        <v>9.5</v>
+      </c>
+      <c r="E10" s="18">
+        <v>48.4</v>
+      </c>
+      <c r="F10" s="18">
+        <v>6.7</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="18">
+        <v>41.6</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>10.4</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B12" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="18">
+        <v>367</v>
+      </c>
+      <c r="D13" s="18">
+        <v>4.2</v>
+      </c>
+      <c r="E13" s="18">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="F13" s="18">
+        <v>3.4</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B14" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="18">
+        <v>570.5</v>
+      </c>
+      <c r="D14" s="18">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E14" s="18">
+        <v>49.5</v>
+      </c>
+      <c r="F14" s="18">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B15" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="18">
+        <v>525.6</v>
+      </c>
+      <c r="D15" s="18">
+        <v>5.4</v>
+      </c>
+      <c r="E15" s="18">
+        <v>61.2</v>
+      </c>
+      <c r="F15" s="18">
+        <v>28.8</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B16" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="18">
+        <v>513.9</v>
+      </c>
+      <c r="D16" s="18">
+        <v>10.8</v>
+      </c>
+      <c r="E16" s="18">
+        <v>48.6</v>
+      </c>
+      <c r="F16" s="18">
+        <v>30.7</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B17" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="18">
+        <v>41.3</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="18">
+        <v>10</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B18" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="18">
+        <v>15.2</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="18">
+        <v>3.8</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B19" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="18">
+        <v>618</v>
+      </c>
+      <c r="D19" s="18">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E19" s="18">
+        <v>37.4</v>
+      </c>
+      <c r="F19" s="18">
+        <v>48.4</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B20" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="18">
+        <v>41.7</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="18">
+        <v>10.1</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B21" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="18">
+        <v>46.7</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="E21" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2">
+        <v>195.8</v>
+      </c>
+      <c r="D2">
+        <v>15.2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3">
+        <v>531</v>
+      </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4">
+        <v>475</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5">
+        <v>80.5</v>
+      </c>
+      <c r="D5">
+        <v>15.4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2.1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6">
+        <v>321.3</v>
+      </c>
+      <c r="D6">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>23.7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7">
+        <v>271</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8">
+        <v>269.5</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>14.5</v>
+      </c>
+      <c r="F8">
+        <v>19.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9">
+        <v>195.6</v>
+      </c>
+      <c r="D9">
+        <v>16.5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>14.4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10">
+        <v>111</v>
+      </c>
+      <c r="D10">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11">
+        <v>146.6</v>
+      </c>
+      <c r="D11">
+        <v>20.9</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12">
+        <v>253</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13">
+        <v>529.79999999999995</v>
+      </c>
+      <c r="D13">
+        <v>21.3</v>
+      </c>
+      <c r="E13">
+        <v>0.9</v>
+      </c>
+      <c r="F13">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>100.5</v>
+      </c>
+      <c r="D14">
+        <v>10.5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>6.5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15">
+        <v>79</v>
+      </c>
+      <c r="D15">
+        <v>16.5</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="F15">
+        <v>1.4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16">
+        <v>368.4</v>
+      </c>
+      <c r="D16">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -819,30 +3259,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="C2">
         <v>76.599999999999994</v>
@@ -857,12 +3297,12 @@
         <v>0.6</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="C3">
         <v>77</v>
@@ -877,12 +3317,12 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="C4">
         <v>193</v>
@@ -897,12 +3337,12 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="C5">
         <v>81.7</v>
@@ -917,12 +3357,12 @@
         <v>1.7</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="C6">
         <v>109.3</v>
@@ -937,12 +3377,12 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="C7">
         <v>89</v>
@@ -957,12 +3397,12 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="C8">
         <v>201.5</v>
@@ -977,12 +3417,12 @@
         <v>13.5</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="C9">
         <v>161.1</v>
@@ -997,12 +3437,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="C10">
         <v>82</v>
@@ -1017,12 +3457,12 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="C11">
         <v>31.8</v>
@@ -1037,12 +3477,12 @@
         <v>0.2</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="C12">
         <v>205</v>
@@ -1057,12 +3497,12 @@
         <v>13.8</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="C13">
         <v>238</v>
@@ -1077,12 +3517,12 @@
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="C14">
         <v>188.9</v>
@@ -1097,12 +3537,12 @@
         <v>8.9</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="C15">
         <v>94.3</v>
@@ -1117,12 +3557,12 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="C16">
         <v>328.5</v>
@@ -1137,22 +3577,10 @@
         <v>28.5</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>